--- a/data/trans_bre/P16A03-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.830329569044422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.661398228095981</v>
+        <v>2.66139822809598</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1825954065142299</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.489383627668888</v>
+        <v>-4.435028644223506</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.370538564094201</v>
+        <v>2.347809783534524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01065403031531365</v>
+        <v>-0.1319038901301927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4681952675747343</v>
+        <v>0.6848962300418528</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6201887594006797</v>
+        <v>-0.5898993417790414</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7164948373267235</v>
+        <v>0.745435856956173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2030618322733152</v>
+        <v>-0.1972536807683275</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.08234648504913326</v>
+        <v>0.1642552286624379</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.125440770855078</v>
+        <v>2.153783261823139</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.404547954893275</v>
+        <v>8.717168107423204</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.528946675982822</v>
+        <v>4.077143834744985</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.794835528256502</v>
+        <v>4.89189426728704</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5088290512706939</v>
+        <v>0.4824885333085911</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14.06211184767493</v>
+        <v>14.73528809618107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9.453720265379406</v>
+        <v>7.843792072823287</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.560432653212009</v>
+        <v>3.350302256221302</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7561655175016108</v>
+        <v>0.4995149815973396</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.17426336880301</v>
+        <v>2.753828242736356</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7263824837112365</v>
+        <v>0.946910743834275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1979619157538829</v>
+        <v>0.145602307523075</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.003944045502002664</v>
+        <v>-0.1798064536104867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6647240107183453</v>
+        <v>0.6287993059460569</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006357455962741133</v>
+        <v>0.1793711644171107</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01258882401476046</v>
+        <v>-0.03778484445634107</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.452624991881812</v>
+        <v>5.05692220159607</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.938413305512244</v>
+        <v>9.877299872536236</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.857837271412357</v>
+        <v>6.137593524283759</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.473417962027153</v>
+        <v>3.622321980406815</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>17.84613694175466</v>
+        <v>17.79414098323622</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>17.14100235252209</v>
+        <v>20.38892632223217</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.875626828095155</v>
+        <v>9.358587697278375</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.096959469236991</v>
+        <v>4.471047943879054</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.520902488123886</v>
+        <v>1.697107314771015</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.06680988732800471</v>
+        <v>-0.2464342259538479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.416283424409259</v>
+        <v>1.760797104866824</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.043583841612624</v>
+        <v>3.191025003794411</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3978466567501461</v>
+        <v>0.4608912059408529</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2070654135129175</v>
+        <v>-0.1850060618515414</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2158929176918759</v>
+        <v>0.6999736482688638</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6029969441683856</v>
+        <v>0.759368022975125</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.45911565590646</v>
+        <v>10.25842852044686</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.719350328953561</v>
+        <v>5.335742295508531</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.468489315650165</v>
+        <v>9.55203782801661</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.79066918830071</v>
+        <v>10.87702918797329</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.072347745248533</v>
+        <v>5.57460177659672</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.886316978099024</v>
+        <v>5.391237753955138</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>18.8270934526197</v>
+        <v>24.67249856039052</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>5.456062858562279</v>
+        <v>5.686475067734171</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.412490390335464</v>
+        <v>1.369531743890152</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.239178394302241</v>
+        <v>3.116518055941871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.823836779619589</v>
+        <v>0.8512173779284241</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9050770200038215</v>
+        <v>0.8107159945967091</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5741070543921331</v>
+        <v>0.5935032846936625</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.157741031438378</v>
+        <v>1.911731804407446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3098096331661641</v>
+        <v>0.3169753707438778</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2191422886445456</v>
+        <v>0.1959106577993254</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.792908358875444</v>
+        <v>4.786565234366967</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.889910508995493</v>
+        <v>6.905286897082513</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.16792988950693</v>
+        <v>4.113274035665239</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.75857368035036</v>
+        <v>3.822074412829293</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.326389882462853</v>
+        <v>3.975254877714939</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10.28920856149441</v>
+        <v>10.0597174990462</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.628240446821432</v>
+        <v>3.577926267355242</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.931075273916388</v>
+        <v>1.912350141722114</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9820245564641207</v>
+        <v>-1.130456772296405</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.540030901095157</v>
+        <v>3.41259648329696</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.087585265350052</v>
+        <v>1.063786098564918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.892075239098378</v>
+        <v>1.733395900079144</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3115923133273413</v>
+        <v>-0.3806273806931558</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.213486374540415</v>
+        <v>1.409441683424627</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4563195215461922</v>
+        <v>0.4178088063315958</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4183327287073324</v>
+        <v>0.3802352410969432</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.442836032498907</v>
+        <v>3.596562118430645</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.924483936307124</v>
+        <v>7.869258816954967</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.70533866003877</v>
+        <v>4.399690591399058</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.333292552385828</v>
+        <v>5.234047598272187</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.919121316930345</v>
+        <v>2.879278722339645</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10.77739283063196</v>
+        <v>12.08953530541191</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>7.20784531142225</v>
+        <v>6.283369623075989</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.083355689344882</v>
+        <v>3.208357443514648</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>4.042841936188247</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.33521677895377</v>
+        <v>4.335216778953768</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>20.87409656300642</v>
@@ -1149,7 +1149,7 @@
         <v>12.46109525353978</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6.214202550297212</v>
+        <v>6.214202550297209</v>
       </c>
     </row>
     <row r="20">
@@ -1160,20 +1160,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.831737575785272</v>
+        <v>5.057854640123407</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.911117749094541</v>
+        <v>1.799890913320437</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.725305484983212</v>
+        <v>2.572403585040317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.914029409674819</v>
+        <v>1.871448820182641</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>0.4516734996663377</v>
+        <v>0.4979594575975085</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="inlineStr"/>
@@ -1186,20 +1186,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.997555942203675</v>
+        <v>8.151266282915413</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.696060333235298</v>
+        <v>5.615857358003414</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.530417000092198</v>
+        <v>5.337366708457279</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.936367909348568</v>
+        <v>5.845980377426945</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>14.84534251834264</v>
+        <v>14.49798578968522</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="inlineStr"/>
@@ -1248,28 +1248,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.179573631655297</v>
+        <v>2.111058629329181</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.770703973953232</v>
+        <v>3.719129462979921</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.185852618633416</v>
+        <v>2.15562759878929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.260507437108506</v>
+        <v>2.225141021290081</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7882964137760531</v>
+        <v>0.7849230370371394</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2.207445910807496</v>
+        <v>2.172583669272216</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.38622862815727</v>
+        <v>1.342889163234642</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.8313067318361417</v>
+        <v>0.812352817997926</v>
       </c>
     </row>
     <row r="24">
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.049371737584485</v>
+        <v>3.951562155916017</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.570464326936248</v>
+        <v>5.515519259360013</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.68426823532905</v>
+        <v>3.715410733561248</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.837065310716001</v>
+        <v>3.859706883656739</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.129922330949851</v>
+        <v>2.171650104396061</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>5.508942753347688</v>
+        <v>5.367829328993021</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.630896909679745</v>
+        <v>3.636362279344592</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.069404795362305</v>
+        <v>2.048121578012036</v>
       </c>
     </row>
     <row r="25">
